--- a/excel/AI Agents in Research and Academia.xlsx
+++ b/excel/AI Agents in Research and Academia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{98C9CB72-FC68-4555-807A-B3AC17976962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{423C9DFD-DD46-4167-9C93-6F8ED49EF45C}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{98C9CB72-FC68-4555-807A-B3AC17976962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B845CE-F695-4543-990D-28C928F172EC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{50A9369B-03BE-4B7E-8345-F22169412F9F}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{50A9369B-03BE-4B7E-8345-F22169412F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>AI Agents in Research and Academia</t>
   </si>
@@ -36,39 +36,24 @@
     <t>Use Case</t>
   </si>
   <si>
-    <t>Source / Pricing</t>
-  </si>
-  <si>
-    <t>Notes &amp; Links</t>
-  </si>
-  <si>
     <t>Agent Laboratory</t>
   </si>
   <si>
     <t>Open-source / Free</t>
   </si>
   <si>
-    <t>✅ 84% cost reduction; supports human feedback (reddit.com, arxiv.org)</t>
-  </si>
-  <si>
     <t>PaSa</t>
   </si>
   <si>
     <t>LLM agent for comprehensive academic paper search</t>
   </si>
   <si>
-    <t>✅ Outperforms Google Scholar by ~38%</t>
-  </si>
-  <si>
     <t>SciSciGPT</t>
   </si>
   <si>
     <t>Research collaborator—data analysis, prototyping, reproducibility</t>
   </si>
   <si>
-    <t>Supports science-of-science workflows</t>
-  </si>
-  <si>
     <t>Clarivate Academic Agents</t>
   </si>
   <si>
@@ -78,18 +63,12 @@
     <t>Enterprise / Paid</t>
   </si>
   <si>
-    <t>Built into Web of Science platform</t>
-  </si>
-  <si>
     <t>STORM</t>
   </si>
   <si>
     <t>Generates structured, cited articles from outlines &amp; web sources</t>
   </si>
   <si>
-    <t>Stanford’s tool automates pre-writing</t>
-  </si>
-  <si>
     <t>NotebookLM</t>
   </si>
   <si>
@@ -99,18 +78,12 @@
     <t>Likely Freemium</t>
   </si>
   <si>
-    <t>Summarizes &amp; cites academic documents</t>
-  </si>
-  <si>
     <t>Jenni AI</t>
   </si>
   <si>
     <t>Summarizes academic papers into key points</t>
   </si>
   <si>
-    <t>Extracts key ideas from long texts</t>
-  </si>
-  <si>
     <t>Elicit</t>
   </si>
   <si>
@@ -120,18 +93,12 @@
     <t>Freemium / Paid</t>
   </si>
   <si>
-    <t>Extracts and summarizes study findings</t>
-  </si>
-  <si>
     <t>Iris.ai</t>
   </si>
   <si>
     <t>Semantic search and concept mapping across research papers</t>
   </si>
   <si>
-    <t>Maps topics and content visually</t>
-  </si>
-  <si>
     <t>Semantic Scholar</t>
   </si>
   <si>
@@ -141,27 +108,18 @@
     <t>Free</t>
   </si>
   <si>
-    <t>NLP-driven summaries &amp; citation context</t>
-  </si>
-  <si>
     <t>ChatPDF</t>
   </si>
   <si>
     <t>Chat-based PDF interrogation and summarization</t>
   </si>
   <si>
-    <t>Q&amp;A on PDF content via chat interface</t>
-  </si>
-  <si>
     <t>Scite.AI</t>
   </si>
   <si>
     <t>Smart citations with context and classification</t>
   </si>
   <si>
-    <t>&gt;“Smart Citations” highlight support vs contradiction</t>
-  </si>
-  <si>
     <t>ClickUp Research Agent</t>
   </si>
   <si>
@@ -171,82 +129,82 @@
     <t>Included in ClickUp AI</t>
   </si>
   <si>
-    <t>Handles outlines, stats, editing</t>
-  </si>
-  <si>
     <t>Literature discovery, summarization, citation management</t>
   </si>
   <si>
     <t>Paid / Freemium</t>
   </si>
   <si>
-    <t>NLP-driven literature research</t>
-  </si>
-  <si>
     <t>Julius AI</t>
   </si>
   <si>
     <t>Data analysis and interpretation for academic research</t>
   </si>
   <si>
-    <t>Synthesizes data and generates visuals</t>
-  </si>
-  <si>
     <t>Scifocus</t>
   </si>
   <si>
     <t>Summarization &amp; outline generation tailored for scholarly use</t>
   </si>
   <si>
-    <t>Ideal for literature reviews</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
     <t>https://agentlaboratory.github.io/</t>
   </si>
   <si>
-    <t>GitHub - bytedance/pasa: PaSa -- an advanced paper search agent powered by large language models. It can autonomously make a series of decisions, including invoking search tools, reading papers, and selecting relevant references, to ultimately obtain comprehensive and accurate results for complex scholarly queries.</t>
-  </si>
-  <si>
-    <t>SciSciGPT - SciSciGPT</t>
-  </si>
-  <si>
-    <t>Discover DRG Fusion | Clarivate</t>
-  </si>
-  <si>
-    <t>Elicit: The AI Research Assistant</t>
-  </si>
-  <si>
-    <t>Iris.ai | Scalable AI Knowledge Solutions for Your Enterprise</t>
-  </si>
-  <si>
-    <t>Semantic Scholar | AI-Powered Research Tool</t>
-  </si>
-  <si>
-    <t>ChatPDF AI | Chat with any PDF | Free</t>
-  </si>
-  <si>
-    <t>AI for Research | Scite</t>
-  </si>
-  <si>
-    <t>ClickUp Brain | One AI to Replace them All</t>
-  </si>
-  <si>
-    <t>Logically.app - Everything you need to write a kick-ass paper in one place (formerly Afforai)</t>
-  </si>
-  <si>
     <t>Afforai/Logically.app</t>
   </si>
   <si>
-    <t>Julius AI | Your AI Data Analyst</t>
-  </si>
-  <si>
-    <t>Supercharge Your Science Research with AI | Scifocus</t>
-  </si>
-  <si>
     <t>Full autonomous research pipeline: lit review ,experimentation, report</t>
+  </si>
+  <si>
+    <t>Website / Source</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>https://github.com/bytedance/pasa</t>
+  </si>
+  <si>
+    <t>https://sciscigpt.com/</t>
+  </si>
+  <si>
+    <t>https://clarivate.com/life-sciences-healthcare/lp/discover-drg-fusion/?campaignname=LS_DRG_Fusion_DRG_Reports_Store_LeadGen_Paid&amp;campaignid=701VO00000Y1Y47YAF&amp;utm_campaign=LS_DRG_Fusion_DRG_Reports_Store_LeadGen_Paid&amp;utm_source=Google&amp;utm_medium=Paid_Search&amp;_bt=750691571036&amp;_bk=clarivate%20drg%20fusion&amp;_bm=b&amp;_bn=g&amp;_bg=178464204465&amp;gad_source=1&amp;gad_campaignid=22523827876&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5PFTyFQYJocByawtmw7j1BsJsjnBB0sbYBEVC6PlP19pOPTzkapBABoC24cQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://storm.genie.stanford.edu/</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=692380834322&amp;source=scrip&amp;continue=https://notebooklm.google.com/?original_referer%3Dhttps://www.google.com%2523%26pli%3D1</t>
+  </si>
+  <si>
+    <t>https://jenni.ai/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=19905599675&amp;utm_term=jenni%20ai&amp;utm_content=652760871019&amp;cmc_adid=ga_652760871019_19905599675&amp;utm_group=146838708919&amp;gad_source=1&amp;gad_campaignid=19905599675&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5H7gdC-v6NZBFAUpr542ZZpHgKLRpK5rR8FJ2jedJuevFdmhFMDmGxoCwmEQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://elicit.com/</t>
+  </si>
+  <si>
+    <t>https://iris.ai/</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/</t>
+  </si>
+  <si>
+    <t>https://www.chatpdf.com/</t>
+  </si>
+  <si>
+    <t>https://scite.ai/</t>
+  </si>
+  <si>
+    <t>https://clickup.com/brain</t>
+  </si>
+  <si>
+    <t>https://afforai.com/</t>
+  </si>
+  <si>
+    <t>https://julius.ai/</t>
+  </si>
+  <si>
+    <t>https://www.scifocus.ai/</t>
   </si>
 </sst>
 </file>
@@ -333,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -479,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AC26F2-390F-485A-8C7C-C81DBB5C2C5E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,9 +605,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -659,303 +614,271 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{6F6FB45C-A591-431D-A9F5-CB73182D12D3}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://github.com/bytedance/pasa" xr:uid="{62F46EC0-8825-4D60-BD99-154059D947A6}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://sciscigpt.com/" xr:uid="{A7F0A0CC-9846-47DF-AACE-0EC1B6390661}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{62F46EC0-8825-4D60-BD99-154059D947A6}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{A7F0A0CC-9846-47DF-AACE-0EC1B6390661}"/>
     <hyperlink ref="D6" r:id="rId4" display="https://clarivate.com/life-sciences-healthcare/lp/discover-drg-fusion/?campaignname=LS_DRG_Fusion_DRG_Reports_Store_LeadGen_Paid&amp;campaignid=701VO00000Y1Y47YAF&amp;utm_campaign=LS_DRG_Fusion_DRG_Reports_Store_LeadGen_Paid&amp;utm_source=Google&amp;utm_medium=Paid_Search&amp;_bt=750691571036&amp;_bk=clarivate%20drg%20fusion&amp;_bm=b&amp;_bn=g&amp;_bg=178464204465&amp;gad_source=1&amp;gad_campaignid=22523827876&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5PFTyFQYJocByawtmw7j1BsJsjnBB0sbYBEVC6PlP19pOPTzkapBABoC24cQAvD_BwE" xr:uid="{A4588EBC-E763-4AB0-9B1C-9368F84CD272}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://storm.genie.stanford.edu/" xr:uid="{F12443D9-56F6-4157-A06F-898B787B3FAA}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://notebooklm.google.com/?original_referer=https:%2F%2Fwww.google.com%23&amp;pli=1" xr:uid="{42CFC773-1EC9-4653-8EDD-CEF8BF08AB76}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F12443D9-56F6-4157-A06F-898B787B3FAA}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{42CFC773-1EC9-4653-8EDD-CEF8BF08AB76}"/>
     <hyperlink ref="D9" r:id="rId7" display="https://jenni.ai/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=19905599675&amp;utm_term=jenni%20ai&amp;utm_content=652760871019&amp;cmc_adid=ga_652760871019_19905599675&amp;utm_group=146838708919&amp;gad_source=1&amp;gad_campaignid=19905599675&amp;gclid=CjwKCAjwyb3DBhBlEiwAqZLe5H7gdC-v6NZBFAUpr542ZZpHgKLRpK5rR8FJ2jedJuevFdmhFMDmGxoCwmEQAvD_BwE" xr:uid="{38FA90D1-F021-447D-97FB-C715A67BD28D}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://elicit.com/" xr:uid="{C3AC62A9-B6E8-4508-B1EB-0272648493CB}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://iris.ai/" xr:uid="{49378766-32D6-4572-B2FB-68B6EA1A6D05}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.semanticscholar.org/" xr:uid="{8C2D1891-1E49-4DD3-9C19-7FEF0373B56B}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.chatpdf.com/" xr:uid="{7AF8A872-C74F-429F-B83B-CE6505D06831}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://scite.ai/" xr:uid="{9466F73F-4B56-4650-8A8C-1F020E91F0E3}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://clickup.com/brain" xr:uid="{DB3DD018-6833-4DF9-835B-52BB3E474BB8}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://afforai.com/" xr:uid="{9EC7F9F2-2684-471B-B4D2-0EDF76068E8E}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://julius.ai/" xr:uid="{0B5B147C-21D2-4F47-8A6C-FEEA392FBF11}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://www.scifocus.ai/" xr:uid="{98412D93-9D6A-4106-BA83-B52362B1EA4F}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{C3AC62A9-B6E8-4508-B1EB-0272648493CB}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{49378766-32D6-4572-B2FB-68B6EA1A6D05}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{8C2D1891-1E49-4DD3-9C19-7FEF0373B56B}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{7AF8A872-C74F-429F-B83B-CE6505D06831}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{9466F73F-4B56-4650-8A8C-1F020E91F0E3}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{DB3DD018-6833-4DF9-835B-52BB3E474BB8}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{9EC7F9F2-2684-471B-B4D2-0EDF76068E8E}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{0B5B147C-21D2-4F47-8A6C-FEEA392FBF11}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{98412D93-9D6A-4106-BA83-B52362B1EA4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
